--- a/data/case1/5/Qlm1_6.xlsx
+++ b/data/case1/5/Qlm1_6.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.23164486539689477</v>
+        <v>-0.23237242672377789</v>
       </c>
       <c r="B1" s="0">
-        <v>0.23116060485160972</v>
+        <v>0.231887096834555</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.16729040270619411</v>
+        <v>-0.16780440163650834</v>
       </c>
       <c r="B2" s="0">
-        <v>0.16611883209167999</v>
+        <v>0.16662856493719591</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.096786959434245645</v>
+        <v>-0.097241244567197072</v>
       </c>
       <c r="B3" s="0">
-        <v>0.096563120746523623</v>
+        <v>0.097015783317774051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.088563120832860776</v>
+        <v>-0.089015783405843152</v>
       </c>
       <c r="B4" s="0">
-        <v>0.088149722773708916</v>
+        <v>0.088600379344919489</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.085149722822167817</v>
+        <v>-0.085600379394421111</v>
       </c>
       <c r="B5" s="0">
-        <v>0.083748606988808483</v>
+        <v>0.084192133621818321</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.015510008453366808</v>
+        <v>0.0150666658501315</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.015622098722142042</v>
+        <v>-0.015179199839865376</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.025622098604535459</v>
+        <v>0.025179199719811418</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.025645869541034649</v>
+        <v>-0.025202838728056953</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.035645869426285337</v>
+        <v>0.035202838610819409</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.035713039797591772</v>
+        <v>-0.035268706372891589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.037713039756619438</v>
+        <v>0.037268706330739754</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.037783479345097515</v>
+        <v>-0.037337613742499443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.039783479310807834</v>
+        <v>0.039337613706980079</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.03978818845070009</v>
+        <v>-0.039342119723935198</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.042788188408644956</v>
+        <v>0.042342119680442991</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.042802572706325037</v>
+        <v>-0.042356150160621553</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.046302572661350183</v>
+        <v>0.045856150114288674</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.046479424200668973</v>
+        <v>-0.046029443387143765</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.01327262824804798</v>
+        <v>-0.012877011167848451</v>
       </c>
       <c r="B13" s="0">
-        <v>0.013263356857073028</v>
+        <v>0.012868333237761043</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.005263356928679741</v>
+        <v>-0.0048683333114558636</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0052616994464536049</v>
+        <v>0.0048667450913706389</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0042616994592501456</v>
+        <v>-0.0038667451050509172</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0042561295879748329</v>
+        <v>0.0038611320388497461</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0063897246420614451</v>
+        <v>0.006819691479500456</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.0067927605236035582</v>
+        <v>-0.0072225174061606445</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0087927605036783874</v>
+        <v>0.0092225173852797937</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.0089556555976155749</v>
+        <v>-0.0093853686574361106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.057870202198412102</v>
+        <v>-0.058082695252128502</v>
       </c>
       <c r="B18" s="0">
-        <v>0.057720721932678742</v>
+        <v>0.057933312867692877</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.053720721969818364</v>
+        <v>-0.053933312905632746</v>
       </c>
       <c r="B19" s="0">
-        <v>0.052590393648002998</v>
+        <v>0.052803037603866176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.048590393698306755</v>
+        <v>-0.048803037655085646</v>
       </c>
       <c r="B20" s="0">
-        <v>0.048258863158077148</v>
+        <v>0.048471538890588306</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040057883258954874</v>
+        <v>-0.0040057842098297769</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999464157554</v>
+        <v>0.0039999999454440882</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.065331872705794325</v>
+        <v>-0.065387320419285189</v>
       </c>
       <c r="B22" s="0">
-        <v>0.065025508537079446</v>
+        <v>0.065080963888775045</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.060025508597981947</v>
+        <v>-0.060080963950879251</v>
       </c>
       <c r="B23" s="0">
-        <v>0.059430354125167284</v>
+        <v>0.05948578184542086</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.03943035432107056</v>
+        <v>-0.039485782045134421</v>
       </c>
       <c r="B24" s="0">
-        <v>0.039223641310375257</v>
+        <v>0.039279031126285169</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097258615493236888</v>
+        <v>-0.097258799524153616</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097134530715788259</v>
+        <v>0.09713475488813117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094634530773928915</v>
+        <v>-0.09463475494749396</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094473959960827969</v>
+        <v>0.094474198450116731</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091973960023148837</v>
+        <v>-0.091974198513739669</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091017656956241311</v>
+        <v>0.09101774312951294</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089017657033383379</v>
+        <v>-0.089017743207945976</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088363063828493793</v>
+        <v>0.088363051869285947</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081363063961441107</v>
+        <v>-0.081363052004462588</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081173640489974552</v>
+        <v>0.081173617285585919</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021173641076810856</v>
+        <v>-0.021173617883518681</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022792362749954</v>
+        <v>0.021022747804721131</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022792506155568</v>
+        <v>-0.014022747950532377</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000904519734902</v>
+        <v>0.014000894751239557</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040009046890610023</v>
+        <v>-0.0040008949234771052</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999998811879323</v>
+        <v>0.003999999879280125</v>
       </c>
     </row>
   </sheetData>
